--- a/Sample_sheet.xlsx
+++ b/Sample_sheet.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">ball </t>
   </si>
@@ -63,6 +57,24 @@
   </si>
   <si>
     <t>dsdd</t>
+  </si>
+  <si>
+    <t>product1</t>
+  </si>
+  <si>
+    <t>prodcut2</t>
+  </si>
+  <si>
+    <t>product3</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
   </si>
 </sst>
 </file>
@@ -383,60 +395,72 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
